--- a/data/cx_dim_followup_status.xlsx
+++ b/data/cx_dim_followup_status.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>second_complain_status_id</t>
+          <t>followup_status_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>second_complain_status</t>
+          <t>followup_status</t>
         </is>
       </c>
     </row>
